--- a/Worktopia_cod/src/main/resources/Docs/Factura_2.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Factura_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d875aac683fd181d/Estudios DAM/DAM2do/Diseño de Interfaces/Worktopia/Worktopia_cod/src/main/resources/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD51D551-9CE8-4BF7-82AB-4C2A30B8B3B4}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63C5CC1-6242-40C5-8435-B41924725FCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
     <t>Descuento</t>
   </si>
   <si>
+    <t>Email:</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>luisfernandez@gmail.com</t>
-  </si>
-  <si>
-    <t>Reserva ID: 22 Asiento ID: 13 fecha y hora de inicio 2025-02-26T08:00 y fin 2025-02-26T10:00</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -171,6 +171,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:I48"/>
+  <dimension ref="A10:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I43"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,14 +531,22 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -564,53 +575,54 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
+    <row r="14">
+      <c r="F14" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -618,9 +630,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="5" t="n">
-        <v>6.0</v>
-      </c>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" s="6"/>
@@ -806,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>5.6075</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.392525</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
